--- a/PIN_assignment_arduino.xlsx
+++ b/PIN_assignment_arduino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\GitHub\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40154E18-2396-4241-9425-7336D4CC5F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC05D8-B91D-4773-A5CB-F03C4B9D2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1290" windowWidth="24690" windowHeight="11385" activeTab="1" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega 2560" sheetId="1" r:id="rId1"/>
@@ -799,10 +799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3389049-E811-4D4F-9E84-6B31736A3147}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1483,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1489,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B258A34D-C685-424C-BBF8-04F539479062}">
   <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/PIN_assignment_arduino.xlsx
+++ b/PIN_assignment_arduino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\GitHub\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC05D8-B91D-4773-A5CB-F03C4B9D2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD92B52-B722-4ADA-8F02-440F8233A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega 2560" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>PIN</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>SCL  I2C port Display</t>
+  </si>
+  <si>
+    <t>Open Box - if electronical lock is implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty </t>
+  </si>
+  <si>
+    <t>for smarthome system e.g. homematic (inform about a sold item)</t>
   </si>
 </sst>
 </file>
@@ -804,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,10 +1313,19 @@
       <c r="B54">
         <v>52</v>
       </c>
+      <c r="E54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -1492,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B258A34D-C685-424C-BBF8-04F539479062}">
   <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/PIN_assignment_arduino.xlsx
+++ b/PIN_assignment_arduino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\GitHub\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD92B52-B722-4ADA-8F02-440F8233A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32B2329-B805-4500-9572-AF7EC030C52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
+    <workbookView xWindow="30435" yWindow="0" windowWidth="24690" windowHeight="13890" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega 2560" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
   <si>
     <t>PIN</t>
   </si>
@@ -298,6 +291,28 @@
   </si>
   <si>
     <t>for smarthome system e.g. homematic (inform about a sold item)</t>
+  </si>
+  <si>
+    <t>cashless payment onyx</t>
+  </si>
+  <si>
+    <t>coin power</t>
+  </si>
+  <si>
+    <t>coin acceptor power - allows to turn off coin acceptor when all compartments are
+empty</t>
+  </si>
+  <si>
+    <t>NV10 bill reader</t>
+  </si>
+  <si>
+    <t>nv 10 channel 1 open</t>
+  </si>
+  <si>
+    <t>nv 10 channel 2 open</t>
+  </si>
+  <si>
+    <t>onyx inhibit</t>
   </si>
 </sst>
 </file>
@@ -414,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -445,6 +460,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -474,7 +492,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>637188</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>18192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -800,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,8 +831,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,16 +946,25 @@
       <c r="B11">
         <v>9</v>
       </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -964,19 +991,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">

--- a/PIN_assignment_arduino.xlsx
+++ b/PIN_assignment_arduino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\GitHub\honigautomat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\github\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32B2329-B805-4500-9572-AF7EC030C52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45526BB7-7939-4F44-9636-DF1AE6A42AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="0" windowWidth="24690" windowHeight="13890" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
+    <workbookView xWindow="32640" yWindow="1755" windowWidth="24270" windowHeight="17145" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega 2560" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
   <si>
     <t>PIN</t>
   </si>
@@ -223,9 +223,6 @@
     <t>selector [4]</t>
   </si>
   <si>
-    <t>empty or for smarthome system e.g. homematic (inform about a sold item)</t>
-  </si>
-  <si>
     <t>Coin acceptor(at the coin acceptor: use COIN, not count! Set switch to "FAST" )</t>
   </si>
   <si>
@@ -238,12 +235,6 @@
     <t>Button 5</t>
   </si>
   <si>
-    <t>row 1</t>
-  </si>
-  <si>
-    <t>row 2</t>
-  </si>
-  <si>
     <t>setup button</t>
   </si>
   <si>
@@ -263,12 +254,6 @@
   </si>
   <si>
     <t>config / setup button</t>
-  </si>
-  <si>
-    <t>powersave</t>
-  </si>
-  <si>
-    <t>powersave 2nd option</t>
   </si>
   <si>
     <t>alternative assignement
@@ -313,6 +298,45 @@
   </si>
   <si>
     <t>onyx inhibit</t>
+  </si>
+  <si>
+    <t>-5V</t>
+  </si>
+  <si>
+    <t>Sommerbetrieb (gegen -5V setzen)</t>
+  </si>
+  <si>
+    <t>tempsensor</t>
+  </si>
+  <si>
+    <t>cooling relais</t>
+  </si>
+  <si>
+    <t>powersave relais</t>
+  </si>
+  <si>
+    <t>Temperature sensor DS18B20</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>connect to pin "tempsensor" and via 4.7k ohm resistor with +5V</t>
+  </si>
+  <si>
+    <t>+5V</t>
+  </si>
+  <si>
+    <t>GND (5V)</t>
+  </si>
+  <si>
+    <t>activate NV10: connect to GND</t>
+  </si>
+  <si>
+    <t>activate bill payment: connect to GND</t>
   </si>
 </sst>
 </file>
@@ -349,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +440,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -429,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -463,6 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -818,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,7 +871,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -921,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>30</v>
@@ -947,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,18 +1002,24 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -996,10 +1041,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1010,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1021,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1359,7 +1404,7 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s">
         <v>38</v>
@@ -1370,7 +1415,7 @@
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -1553,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B258A34D-C685-424C-BBF8-04F539479062}">
-  <dimension ref="B2:H22"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,14 +1619,14 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1589,13 +1634,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>33</v>
+      <c r="F3" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1605,12 +1650,6 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -1620,10 +1659,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1631,16 +1667,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -1648,16 +1678,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1665,16 +1689,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1682,16 +1700,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1699,16 +1711,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1716,16 +1722,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1733,16 +1736,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1750,16 +1747,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -1767,19 +1758,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>32</v>
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -1787,19 +1769,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>33</v>
+      <c r="F15" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -1807,10 +1783,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -1824,10 +1803,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>32</v>
+        <v>70</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1841,10 +1820,10 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1858,10 +1837,10 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1875,10 +1854,10 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>34</v>
+        <v>73</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1889,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>29</v>
@@ -1903,10 +1882,39 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/PIN_assignment_arduino.xlsx
+++ b/PIN_assignment_arduino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\github\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45526BB7-7939-4F44-9636-DF1AE6A42AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E6A25-5B17-4727-B239-C5704EB0D43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="1755" windowWidth="24270" windowHeight="17145" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
+    <workbookView xWindow="2535" yWindow="600" windowWidth="24945" windowHeight="21180" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega 2560" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="108">
   <si>
     <t>PIN</t>
   </si>
@@ -269,19 +269,10 @@
     <t>SCL  I2C port Display</t>
   </si>
   <si>
-    <t>Open Box - if electronical lock is implemented</t>
-  </si>
-  <si>
     <t xml:space="preserve">empty </t>
   </si>
   <si>
-    <t>for smarthome system e.g. homematic (inform about a sold item)</t>
-  </si>
-  <si>
     <t>cashless payment onyx</t>
-  </si>
-  <si>
-    <t>coin power</t>
   </si>
   <si>
     <t>coin acceptor power - allows to turn off coin acceptor when all compartments are
@@ -337,6 +328,31 @@
   </si>
   <si>
     <t>activate bill payment: connect to GND</t>
+  </si>
+  <si>
+    <t>smarthome info about sold items</t>
+  </si>
+  <si>
+    <t>smarthome</t>
+  </si>
+  <si>
+    <t>coin power
+ relais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim 800L SMS module </t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Buzzer to inform about incoming Paypal money transfer</t>
   </si>
 </sst>
 </file>
@@ -870,8 +886,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,6 +986,12 @@
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -986,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,11 +1062,11 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>84</v>
+      <c r="C19" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1055,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1066,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1376,9 +1398,13 @@
       <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
       <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -1398,24 +1424,27 @@
       <c r="B53">
         <v>51</v>
       </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>52</v>
       </c>
-      <c r="E54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>53</v>
       </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
       <c r="E55" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -1640,7 +1669,7 @@
         <v>68</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1725,10 +1754,10 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1739,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1750,7 +1779,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -1761,7 +1790,7 @@
         <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -1775,7 +1804,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -1789,7 +1818,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -1806,7 +1835,7 @@
         <v>70</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1823,7 +1852,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1840,7 +1869,7 @@
         <v>72</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1857,7 +1886,7 @@
         <v>73</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1890,28 +1919,28 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E27" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E28" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E29" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>29</v>

--- a/PIN_assignment_arduino.xlsx
+++ b/PIN_assignment_arduino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\github\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E6A25-5B17-4727-B239-C5704EB0D43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52C889E-1122-4E9D-AE48-373F6615A9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="600" windowWidth="24945" windowHeight="21180" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
+    <workbookView xWindow="9405" yWindow="105" windowWidth="42975" windowHeight="23175" xr2:uid="{1A94CFE8-7D10-41CB-9C3C-AAF15650CB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Mega 2560" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
   <si>
     <t>PIN</t>
   </si>
@@ -353,13 +353,19 @@
   </si>
   <si>
     <t>Buzzer to inform about incoming Paypal money transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NOTE: if you use a keypad, don't use product selection buttons!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +390,23 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -518,6 +541,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -884,10 +909,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,6 +931,9 @@
       <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -1372,7 +1400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>47</v>
       </c>
@@ -1381,7 +1409,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>48</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>49</v>
       </c>
@@ -1407,7 +1435,7 @@
       </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>50</v>
       </c>
@@ -1420,7 +1448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>51</v>
       </c>
@@ -1431,12 +1459,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>53</v>
       </c>
@@ -1447,12 +1475,19 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>4</v>
       </c>
@@ -1462,14 +1497,14 @@
       <c r="D57" t="s">
         <v>60</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="26" t="s">
         <v>55</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -1479,14 +1514,14 @@
       <c r="D58" t="s">
         <v>61</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="26" t="s">
         <v>56</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>6</v>
       </c>
@@ -1496,14 +1531,14 @@
       <c r="D59" t="s">
         <v>62</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="26" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>7</v>
       </c>
@@ -1513,14 +1548,14 @@
       <c r="D60" t="s">
         <v>63</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>8</v>
       </c>
@@ -1530,14 +1565,14 @@
       <c r="D61" t="s">
         <v>64</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="26" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>17</v>
       </c>
